--- a/datasets/malaria.xlsx
+++ b/datasets/malaria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-prediction\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FE645-5544-496A-A43A-FAA13230CFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D60A1-C765-4EF2-B96D-4CCD37A469C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="4870" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010 Malaria Cases and Deaths" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="643">
   <si>
     <t>DDID</t>
   </si>
@@ -1956,6 +1956,9 @@
   </si>
   <si>
     <t>Malaria Deaths/1000</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2179,6 +2182,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2498,10 +2504,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4178,11 +4184,11 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F113" si="2">1000*C67/B67</f>
+        <f t="shared" ref="F67:F114" si="2">1000*C67/B67</f>
         <v>1.2647402014264895</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G113" si="3">E67/B67</f>
+        <f t="shared" ref="G67:G114" si="3">E67/B67</f>
         <v>6.8575622264625583E-8</v>
       </c>
     </row>
@@ -5334,6 +5340,35 @@
       <c r="G113">
         <f t="shared" si="3"/>
         <v>2.9522339895241111E-7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B114" s="27">
+        <f>SUM(B2:B113)</f>
+        <v>5704254486</v>
+      </c>
+      <c r="C114" s="27">
+        <f t="shared" ref="C114:E114" si="4">SUM(C2:C113)</f>
+        <v>241648938.72000003</v>
+      </c>
+      <c r="D114" s="27">
+        <f t="shared" si="4"/>
+        <v>84422166.930000007</v>
+      </c>
+      <c r="E114" s="27">
+        <f t="shared" si="4"/>
+        <v>119940</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>42.362930916403023</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>2.102641112775907E-5</v>
       </c>
     </row>
   </sheetData>
